--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H2">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I2">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J2">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N2">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q2">
-        <v>3.106303692130445</v>
+        <v>0.208160538302</v>
       </c>
       <c r="R2">
-        <v>27.95673322917401</v>
+        <v>1.873444844718</v>
       </c>
       <c r="S2">
-        <v>0.04366491034258822</v>
+        <v>0.006609991909869222</v>
       </c>
       <c r="T2">
-        <v>0.04366491034258822</v>
+        <v>0.006609991909869222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H3">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I3">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J3">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q3">
-        <v>31.87233177702</v>
+        <v>5.23486358892</v>
       </c>
       <c r="R3">
-        <v>286.85098599318</v>
+        <v>47.11377230028</v>
       </c>
       <c r="S3">
-        <v>0.4480252568280955</v>
+        <v>0.1662294220330506</v>
       </c>
       <c r="T3">
-        <v>0.4480252568280955</v>
+        <v>0.1662294220330507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H4">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I4">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J4">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q4">
-        <v>10.886977593049</v>
+        <v>1.788129057954</v>
       </c>
       <c r="R4">
-        <v>97.982798337441</v>
+        <v>16.093161521586</v>
       </c>
       <c r="S4">
-        <v>0.1530368397998507</v>
+        <v>0.05678078421247267</v>
       </c>
       <c r="T4">
-        <v>0.1530368397998507</v>
+        <v>0.05678078421247267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.272796</v>
       </c>
       <c r="I5">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J5">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N5">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q5">
-        <v>1.133749259558222</v>
+        <v>0.4625726745453333</v>
       </c>
       <c r="R5">
-        <v>10.203743336024</v>
+        <v>4.163154070908</v>
       </c>
       <c r="S5">
-        <v>0.01593696710820722</v>
+        <v>0.01468867087591426</v>
       </c>
       <c r="T5">
-        <v>0.01593696710820723</v>
+        <v>0.01468867087591426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.272796</v>
       </c>
       <c r="I6">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J6">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q6">
         <v>11.63287177752</v>
@@ -818,10 +818,10 @@
         <v>104.69584599768</v>
       </c>
       <c r="S6">
-        <v>0.1635217781439333</v>
+        <v>0.3693936851104617</v>
       </c>
       <c r="T6">
-        <v>0.1635217781439334</v>
+        <v>0.3693936851104617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.272796</v>
       </c>
       <c r="I7">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J7">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q7">
         <v>3.973566015524</v>
@@ -880,10 +880,10 @@
         <v>35.762094139716</v>
       </c>
       <c r="S7">
-        <v>0.05585590496118332</v>
+        <v>0.1261778021434554</v>
       </c>
       <c r="T7">
-        <v>0.05585590496118333</v>
+        <v>0.1261778021434554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.648844</v>
       </c>
       <c r="I8">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J8">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N8">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q8">
-        <v>0.5779609651262223</v>
+        <v>0.2358095912013333</v>
       </c>
       <c r="R8">
-        <v>5.201648686136</v>
+        <v>2.122286320812</v>
       </c>
       <c r="S8">
-        <v>0.008124322740138724</v>
+        <v>0.007487968194283852</v>
       </c>
       <c r="T8">
-        <v>0.008124322740138724</v>
+        <v>0.007487968194283851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.648844</v>
       </c>
       <c r="I9">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J9">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q9">
         <v>5.930187599279999</v>
@@ -1004,10 +1004,10 @@
         <v>53.37168839352</v>
       </c>
       <c r="S9">
-        <v>0.08335988219480757</v>
+        <v>0.1883089483482132</v>
       </c>
       <c r="T9">
-        <v>0.08335988219480757</v>
+        <v>0.1883089483482132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.648844</v>
       </c>
       <c r="I10">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J10">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q10">
         <v>2.025638411636</v>
@@ -1066,10 +1066,10 @@
         <v>18.230745704724</v>
       </c>
       <c r="S10">
-        <v>0.02847413788119544</v>
+        <v>0.0643227271722791</v>
       </c>
       <c r="T10">
-        <v>0.02847413788119544</v>
+        <v>0.06432272717227909</v>
       </c>
     </row>
   </sheetData>
